--- a/src/main/resources/object/Facebook_Keyword.xlsx
+++ b/src/main/resources/object/Facebook_Keyword.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5970"/>
+    <workbookView windowWidth="19890" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>TestCase</t>
   </si>
@@ -37,10 +32,19 @@
     <t>value</t>
   </si>
   <si>
+    <t>Create Account with invalid credentials</t>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>enter_text</t>
   </si>
   <si>
     <t>firstname</t>
@@ -52,19 +56,19 @@
     <t>Test</t>
   </si>
   <si>
-    <t>open_browser</t>
-  </si>
-  <si>
-    <t>enter_text</t>
-  </si>
-  <si>
-    <t>lastname</t>
+    <t>surname</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>test@testing123.com</t>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>NewUser@123</t>
   </si>
   <si>
     <t>select</t>
@@ -79,6 +83,9 @@
     <t>day</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>click</t>
   </si>
   <si>
@@ -91,49 +98,181 @@
     <t>create_account</t>
   </si>
   <si>
-    <t>Create Account with invalid credentials</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>NewUser@123</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>close_browser</t>
-  </si>
-  <si>
-    <t>re-enter_email</t>
-  </si>
-  <si>
-    <t>test@testing123.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +285,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -157,44 +482,322 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -241,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,242 +1054,222 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="21.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId1" display="NewUser@123"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/object/Facebook_Keyword.xlsx
+++ b/src/main/resources/object/Facebook_Keyword.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A4"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -106,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -136,16 +136,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +196,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -173,92 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +496,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +518,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +538,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -542,15 +560,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,15 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,7 +596,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,128 +614,128 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1062,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
